--- a/ocean_df.xlsx
+++ b/ocean_df.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\freelancing\personality-trait\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9BCCA27-687C-4AAF-AC01-74A057001E57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06C40471-8A4C-4335-B319-0A924CB5D076}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23148" yWindow="-1116" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-23148" yWindow="-1116" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="output comparison" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="8">
   <si>
     <t>O</t>
   </si>
@@ -52,7 +52,10 @@
     <t>Sum(original)</t>
   </si>
   <si>
-    <t>Sum(Predicted)</t>
+    <t>Sum(Predicted2)</t>
+  </si>
+  <si>
+    <t>Sum(Predicted1)</t>
   </si>
 </sst>
 </file>
@@ -76,7 +79,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -86,6 +89,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -128,7 +137,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -139,9 +148,14 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -446,19 +460,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L60"/>
+  <dimension ref="A1:S60"/>
   <sheetViews>
-    <sheetView topLeftCell="A35" workbookViewId="0">
-      <selection sqref="A1:E60"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N8" sqref="N8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="11" max="11" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="25.6640625" customWidth="1"/>
+    <col min="11" max="11" width="12.33203125" style="7" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="25.6640625" style="5" customWidth="1"/>
+    <col min="18" max="18" width="8.88671875" style="7"/>
+    <col min="19" max="19" width="16.21875" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -489,14 +505,35 @@
       <c r="J1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="K1" s="6" t="s">
         <v>5</v>
       </c>
       <c r="L1" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="R1" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="S1" s="4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -527,16 +564,38 @@
       <c r="J2">
         <v>-5.9734806418418884E-3</v>
       </c>
-      <c r="K2">
+      <c r="K2" s="7">
         <f>SUM(A2:E2)</f>
         <v>14</v>
       </c>
-      <c r="L2">
+      <c r="L2" s="5">
         <f>SUM(F2:J2)</f>
         <v>13.938015319406986</v>
       </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M2">
+        <v>1.074776411056519</v>
+      </c>
+      <c r="N2">
+        <v>3.0018546581268311</v>
+      </c>
+      <c r="O2">
+        <v>3.988160371780396</v>
+      </c>
+      <c r="P2">
+        <v>5.9977812767028809</v>
+      </c>
+      <c r="Q2">
+        <v>1.5269048511981961E-2</v>
+      </c>
+      <c r="R2" s="7">
+        <v>14</v>
+      </c>
+      <c r="S2" s="5">
+        <f>SUM(M2:Q2)</f>
+        <v>14.077841766178608</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A3" s="3">
         <v>0</v>
       </c>
@@ -567,16 +626,38 @@
       <c r="J3">
         <v>1.9526782035827639</v>
       </c>
-      <c r="K3">
+      <c r="K3" s="7">
         <f t="shared" ref="K3:K60" si="0">SUM(A3:E3)</f>
         <v>2</v>
       </c>
-      <c r="L3">
+      <c r="L3" s="5">
         <f t="shared" ref="L3:L60" si="1">SUM(F3:J3)</f>
         <v>2.1663683913648129</v>
       </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M3">
+        <v>-6.2966719269752502E-4</v>
+      </c>
+      <c r="N3">
+        <v>5.1638409495353699E-3</v>
+      </c>
+      <c r="O3">
+        <v>-4.4228494167327881E-2</v>
+      </c>
+      <c r="P3">
+        <v>9.5528308302164078E-3</v>
+      </c>
+      <c r="Q3">
+        <v>1.5246973037719731</v>
+      </c>
+      <c r="R3" s="7">
+        <v>2</v>
+      </c>
+      <c r="S3" s="5">
+        <f>SUM(M3:Q3)</f>
+        <v>1.4945558141916995</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A4" s="3">
         <v>1</v>
       </c>
@@ -607,16 +688,38 @@
       <c r="J4">
         <v>-1.5586614608764651E-3</v>
       </c>
-      <c r="K4">
+      <c r="K4" s="7">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="L4">
+      <c r="L4" s="5">
         <f t="shared" si="1"/>
         <v>4.0077418684959412</v>
       </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M4">
+        <v>1.0042088031768801</v>
+      </c>
+      <c r="N4">
+        <v>0.97218883037567139</v>
+      </c>
+      <c r="O4">
+        <v>0.95225584506988525</v>
+      </c>
+      <c r="P4">
+        <v>1.0022653341293331</v>
+      </c>
+      <c r="Q4">
+        <v>1.689568161964417E-4</v>
+      </c>
+      <c r="R4" s="7">
+        <v>4</v>
+      </c>
+      <c r="S4" s="5">
+        <f>SUM(M4:Q4)</f>
+        <v>3.931087769567966</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A5" s="3">
         <v>0</v>
       </c>
@@ -647,16 +750,38 @@
       <c r="J5">
         <v>1.997262716293335</v>
       </c>
-      <c r="K5">
+      <c r="K5" s="7">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="L5">
+      <c r="L5" s="5">
         <f t="shared" si="1"/>
         <v>3.782858781516552</v>
       </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M5">
+        <v>3.2245628535747528E-3</v>
+      </c>
+      <c r="N5">
+        <v>0.95421433448791504</v>
+      </c>
+      <c r="O5">
+        <v>5.6709200143814087E-3</v>
+      </c>
+      <c r="P5">
+        <v>0.94501960277557373</v>
+      </c>
+      <c r="Q5">
+        <v>2.1368625164031978</v>
+      </c>
+      <c r="R5" s="7">
+        <v>4</v>
+      </c>
+      <c r="S5" s="5">
+        <f>SUM(M5:Q5)</f>
+        <v>4.0449919365346432</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A6" s="3">
         <v>1</v>
       </c>
@@ -687,16 +812,38 @@
       <c r="J6">
         <v>1.0026344060897829</v>
       </c>
-      <c r="K6">
+      <c r="K6" s="7">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="L6">
+      <c r="L6" s="5">
         <f t="shared" si="1"/>
         <v>16.017675638198853</v>
       </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M6">
+        <v>0.99543023109436035</v>
+      </c>
+      <c r="N6">
+        <v>0.99541699886322021</v>
+      </c>
+      <c r="O6">
+        <v>5.9964861869812012</v>
+      </c>
+      <c r="P6">
+        <v>6.9940109252929688</v>
+      </c>
+      <c r="Q6">
+        <v>1.005170464515686</v>
+      </c>
+      <c r="R6" s="7">
+        <v>16</v>
+      </c>
+      <c r="S6" s="5">
+        <f>SUM(M6:Q6)</f>
+        <v>15.986514806747437</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A7" s="3">
         <v>0</v>
       </c>
@@ -727,16 +874,38 @@
       <c r="J7">
         <v>7.0044436454772949</v>
       </c>
-      <c r="K7">
+      <c r="K7" s="7">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="L7">
+      <c r="L7" s="5">
         <f t="shared" si="1"/>
         <v>6.9919034806080163</v>
       </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M7">
+        <v>-2.20513716340065E-3</v>
+      </c>
+      <c r="N7">
+        <v>-3.6357343196868901E-3</v>
+      </c>
+      <c r="O7">
+        <v>6.1020180583000183E-3</v>
+      </c>
+      <c r="P7">
+        <v>-9.2270690947771072E-3</v>
+      </c>
+      <c r="Q7">
+        <v>7.0202088356018066</v>
+      </c>
+      <c r="R7" s="7">
+        <v>7</v>
+      </c>
+      <c r="S7" s="5">
+        <f>SUM(M7:Q7)</f>
+        <v>7.011242913082242</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A8" s="3">
         <v>0</v>
       </c>
@@ -767,16 +936,38 @@
       <c r="J8">
         <v>3.9112873077392578</v>
       </c>
-      <c r="K8">
+      <c r="K8" s="7">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="L8">
+      <c r="L8" s="5">
         <f t="shared" si="1"/>
         <v>3.9367791675031185</v>
       </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M8">
+        <v>2.8943028301000599E-2</v>
+      </c>
+      <c r="N8">
+        <v>5.5177129805088043E-2</v>
+      </c>
+      <c r="O8">
+        <v>-0.18652412295341489</v>
+      </c>
+      <c r="P8">
+        <v>-2.657251432538033E-3</v>
+      </c>
+      <c r="Q8">
+        <v>3.7478847503662109</v>
+      </c>
+      <c r="R8" s="7">
+        <v>4</v>
+      </c>
+      <c r="S8" s="5">
+        <f>SUM(M8:Q8)</f>
+        <v>3.6428235340863466</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A9" s="3">
         <v>0</v>
       </c>
@@ -807,16 +998,38 @@
       <c r="J9">
         <v>-2.8884038329124451E-3</v>
       </c>
-      <c r="K9">
+      <c r="K9" s="7">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="L9">
+      <c r="L9" s="5">
         <f t="shared" si="1"/>
         <v>4.003069531172514</v>
       </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M9">
+        <v>6.69870525598526E-4</v>
+      </c>
+      <c r="N9">
+        <v>1.001576900482178</v>
+      </c>
+      <c r="O9">
+        <v>1.261993885040283</v>
+      </c>
+      <c r="P9">
+        <v>1.9961661100387571</v>
+      </c>
+      <c r="Q9">
+        <v>-3.0382797122001648E-3</v>
+      </c>
+      <c r="R9" s="7">
+        <v>4</v>
+      </c>
+      <c r="S9" s="5">
+        <f>SUM(M9:Q9)</f>
+        <v>4.2573684863746166</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A10" s="3">
         <v>0</v>
       </c>
@@ -847,16 +1060,38 @@
       <c r="J10">
         <v>3.9990518093109131</v>
       </c>
-      <c r="K10">
+      <c r="K10" s="7">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="L10">
+      <c r="L10" s="5">
         <f t="shared" si="1"/>
         <v>10.000935602933168</v>
       </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M10">
+        <v>-1.96993313729763E-2</v>
+      </c>
+      <c r="N10">
+        <v>0.96811342239379883</v>
+      </c>
+      <c r="O10">
+        <v>1.9414685964584351</v>
+      </c>
+      <c r="P10">
+        <v>2.9760677814483638</v>
+      </c>
+      <c r="Q10">
+        <v>3.9966592788696289</v>
+      </c>
+      <c r="R10" s="7">
+        <v>10</v>
+      </c>
+      <c r="S10" s="5">
+        <f>SUM(M10:Q10)</f>
+        <v>9.8626097477972507</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A11" s="3">
         <v>0</v>
       </c>
@@ -887,16 +1122,38 @@
       <c r="J11">
         <v>-3.1102448701858521E-4</v>
       </c>
-      <c r="K11">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L11">
+      <c r="K11" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L11" s="5">
         <f t="shared" si="1"/>
         <v>-1.3401531614363194E-3</v>
       </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M11">
+        <v>-2.1444261074066159E-4</v>
+      </c>
+      <c r="N11">
+        <v>3.5960599780082703E-4</v>
+      </c>
+      <c r="O11">
+        <v>-6.5407902002334595E-4</v>
+      </c>
+      <c r="P11">
+        <v>-5.6827440857887268E-4</v>
+      </c>
+      <c r="Q11">
+        <v>-4.3410807847976678E-5</v>
+      </c>
+      <c r="R11" s="7">
+        <v>0</v>
+      </c>
+      <c r="S11" s="5">
+        <f>SUM(M11:Q11)</f>
+        <v>-1.1206008493900299E-3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A12" s="3">
         <v>0</v>
       </c>
@@ -927,16 +1184,38 @@
       <c r="J12">
         <v>-1.4762207865715029E-3</v>
       </c>
-      <c r="K12">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="L12">
+      <c r="K12" s="7">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="L12" s="5">
         <f t="shared" si="1"/>
         <v>1.9976366125047205</v>
       </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M12">
+        <v>1.1829324066638951E-3</v>
+      </c>
+      <c r="N12">
+        <v>8.3813071250915527E-4</v>
+      </c>
+      <c r="O12">
+        <v>0.99565494060516357</v>
+      </c>
+      <c r="P12">
+        <v>0.9972691535949707</v>
+      </c>
+      <c r="Q12">
+        <v>5.6086666882038123E-2</v>
+      </c>
+      <c r="R12" s="7">
+        <v>2</v>
+      </c>
+      <c r="S12" s="5">
+        <f>SUM(M12:Q12)</f>
+        <v>2.0510318242013454</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A13" s="3">
         <v>0</v>
       </c>
@@ -967,16 +1246,38 @@
       <c r="J13">
         <v>-3.1102448701858521E-4</v>
       </c>
-      <c r="K13">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L13">
+      <c r="K13" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L13" s="5">
         <f t="shared" si="1"/>
         <v>-1.3401531614363194E-3</v>
       </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M13">
+        <v>-2.1444261074066159E-4</v>
+      </c>
+      <c r="N13">
+        <v>3.5960599780082703E-4</v>
+      </c>
+      <c r="O13">
+        <v>-6.5407902002334595E-4</v>
+      </c>
+      <c r="P13">
+        <v>-5.6827440857887268E-4</v>
+      </c>
+      <c r="Q13">
+        <v>-4.3410807847976678E-5</v>
+      </c>
+      <c r="R13" s="7">
+        <v>0</v>
+      </c>
+      <c r="S13" s="5">
+        <f>SUM(M13:Q13)</f>
+        <v>-1.1206008493900299E-3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A14" s="3">
         <v>0</v>
       </c>
@@ -1007,16 +1308,38 @@
       <c r="J14">
         <v>-3.1102448701858521E-4</v>
       </c>
-      <c r="K14">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L14">
+      <c r="K14" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L14" s="5">
         <f t="shared" si="1"/>
         <v>-1.3401531614363194E-3</v>
       </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M14">
+        <v>-2.1444261074066159E-4</v>
+      </c>
+      <c r="N14">
+        <v>3.5960599780082703E-4</v>
+      </c>
+      <c r="O14">
+        <v>-6.5407902002334595E-4</v>
+      </c>
+      <c r="P14">
+        <v>-5.6827440857887268E-4</v>
+      </c>
+      <c r="Q14">
+        <v>-4.3410807847976678E-5</v>
+      </c>
+      <c r="R14" s="7">
+        <v>0</v>
+      </c>
+      <c r="S14" s="5">
+        <f>SUM(M14:Q14)</f>
+        <v>-1.1206008493900299E-3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A15" s="3">
         <v>1</v>
       </c>
@@ -1047,16 +1370,38 @@
       <c r="J15">
         <v>-9.1344118118286133E-4</v>
       </c>
-      <c r="K15">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="L15">
+      <c r="K15" s="7">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="L15" s="5">
         <f t="shared" si="1"/>
         <v>1.9963688333518803</v>
       </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M15">
+        <v>0.99895238876342773</v>
+      </c>
+      <c r="N15">
+        <v>1.0014051198959351</v>
+      </c>
+      <c r="O15">
+        <v>-8.7726488709449768E-4</v>
+      </c>
+      <c r="P15">
+        <v>-1.1921394616365431E-3</v>
+      </c>
+      <c r="Q15">
+        <v>-2.1578595042228699E-3</v>
+      </c>
+      <c r="R15" s="7">
+        <v>2</v>
+      </c>
+      <c r="S15" s="5">
+        <f>SUM(M15:Q15)</f>
+        <v>1.9961302448064089</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A16" s="3">
         <v>0</v>
       </c>
@@ -1087,16 +1432,38 @@
       <c r="J16">
         <v>-3.1102448701858521E-4</v>
       </c>
-      <c r="K16">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L16">
+      <c r="K16" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L16" s="5">
         <f t="shared" si="1"/>
         <v>-1.3401531614363194E-3</v>
       </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M16">
+        <v>-2.1444261074066159E-4</v>
+      </c>
+      <c r="N16">
+        <v>3.5960599780082703E-4</v>
+      </c>
+      <c r="O16">
+        <v>-6.5407902002334595E-4</v>
+      </c>
+      <c r="P16">
+        <v>-5.6827440857887268E-4</v>
+      </c>
+      <c r="Q16">
+        <v>-4.3410807847976678E-5</v>
+      </c>
+      <c r="R16" s="7">
+        <v>0</v>
+      </c>
+      <c r="S16" s="5">
+        <f>SUM(M16:Q16)</f>
+        <v>-1.1206008493900299E-3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A17" s="3">
         <v>0</v>
       </c>
@@ -1127,16 +1494,38 @@
       <c r="J17">
         <v>-1.4762207865715029E-3</v>
       </c>
-      <c r="K17">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="L17">
+      <c r="K17" s="7">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="L17" s="5">
         <f t="shared" si="1"/>
         <v>1.9976366125047205</v>
       </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M17">
+        <v>1.1829324066638951E-3</v>
+      </c>
+      <c r="N17">
+        <v>8.3813071250915527E-4</v>
+      </c>
+      <c r="O17">
+        <v>0.99565494060516357</v>
+      </c>
+      <c r="P17">
+        <v>0.9972691535949707</v>
+      </c>
+      <c r="Q17">
+        <v>5.6086666882038123E-2</v>
+      </c>
+      <c r="R17" s="7">
+        <v>2</v>
+      </c>
+      <c r="S17" s="5">
+        <f>SUM(M17:Q17)</f>
+        <v>2.0510318242013454</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A18" s="3">
         <v>0</v>
       </c>
@@ -1167,16 +1556,38 @@
       <c r="J18">
         <v>-1.4762207865715029E-3</v>
       </c>
-      <c r="K18">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="L18">
+      <c r="K18" s="7">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="L18" s="5">
         <f t="shared" si="1"/>
         <v>1.9976366125047205</v>
       </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M18">
+        <v>1.1829324066638951E-3</v>
+      </c>
+      <c r="N18">
+        <v>8.3813071250915527E-4</v>
+      </c>
+      <c r="O18">
+        <v>0.99565494060516357</v>
+      </c>
+      <c r="P18">
+        <v>0.9972691535949707</v>
+      </c>
+      <c r="Q18">
+        <v>5.6086666882038123E-2</v>
+      </c>
+      <c r="R18" s="7">
+        <v>2</v>
+      </c>
+      <c r="S18" s="5">
+        <f>SUM(M18:Q18)</f>
+        <v>2.0510318242013454</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A19" s="3">
         <v>0</v>
       </c>
@@ -1207,16 +1618,38 @@
       <c r="J19">
         <v>-2.8884038329124451E-3</v>
       </c>
-      <c r="K19">
+      <c r="K19" s="7">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="L19">
+      <c r="L19" s="5">
         <f t="shared" si="1"/>
         <v>4.003069531172514</v>
       </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M19">
+        <v>6.69870525598526E-4</v>
+      </c>
+      <c r="N19">
+        <v>1.001576900482178</v>
+      </c>
+      <c r="O19">
+        <v>1.261993885040283</v>
+      </c>
+      <c r="P19">
+        <v>1.9961661100387571</v>
+      </c>
+      <c r="Q19">
+        <v>-3.0382797122001648E-3</v>
+      </c>
+      <c r="R19" s="7">
+        <v>4</v>
+      </c>
+      <c r="S19" s="5">
+        <f>SUM(M19:Q19)</f>
+        <v>4.2573684863746166</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A20" s="3">
         <v>0</v>
       </c>
@@ -1247,16 +1680,38 @@
       <c r="J20">
         <v>0.99950742721557617</v>
       </c>
-      <c r="K20">
+      <c r="K20" s="7">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="L20">
+      <c r="L20" s="5">
         <f t="shared" si="1"/>
         <v>2.9956029541790485</v>
       </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M20">
+        <v>1.744348555803299E-3</v>
+      </c>
+      <c r="N20">
+        <v>-1.797204278409481E-2</v>
+      </c>
+      <c r="O20">
+        <v>1.0002850294113159</v>
+      </c>
+      <c r="P20">
+        <v>0.99474012851715088</v>
+      </c>
+      <c r="Q20">
+        <v>1.1933708190917971</v>
+      </c>
+      <c r="R20" s="7">
+        <v>3</v>
+      </c>
+      <c r="S20" s="5">
+        <f>SUM(M20:Q20)</f>
+        <v>3.1721682827919722</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A21" s="3">
         <v>0</v>
       </c>
@@ -1287,16 +1742,38 @@
       <c r="J21">
         <v>-3.1102448701858521E-4</v>
       </c>
-      <c r="K21">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L21">
+      <c r="K21" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L21" s="5">
         <f t="shared" si="1"/>
         <v>-1.3401531614363194E-3</v>
       </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M21">
+        <v>-2.1444261074066159E-4</v>
+      </c>
+      <c r="N21">
+        <v>3.5960599780082703E-4</v>
+      </c>
+      <c r="O21">
+        <v>-6.5407902002334595E-4</v>
+      </c>
+      <c r="P21">
+        <v>-5.6827440857887268E-4</v>
+      </c>
+      <c r="Q21">
+        <v>-4.3410807847976678E-5</v>
+      </c>
+      <c r="R21" s="7">
+        <v>0</v>
+      </c>
+      <c r="S21" s="5">
+        <f>SUM(M21:Q21)</f>
+        <v>-1.1206008493900299E-3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A22" s="3">
         <v>0</v>
       </c>
@@ -1327,16 +1804,38 @@
       <c r="J22">
         <v>-3.1102448701858521E-4</v>
       </c>
-      <c r="K22">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L22">
+      <c r="K22" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L22" s="5">
         <f t="shared" si="1"/>
         <v>-1.3401531614363194E-3</v>
       </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M22">
+        <v>-2.1444261074066159E-4</v>
+      </c>
+      <c r="N22">
+        <v>3.5960599780082703E-4</v>
+      </c>
+      <c r="O22">
+        <v>-6.5407902002334595E-4</v>
+      </c>
+      <c r="P22">
+        <v>-5.6827440857887268E-4</v>
+      </c>
+      <c r="Q22">
+        <v>-4.3410807847976678E-5</v>
+      </c>
+      <c r="R22" s="7">
+        <v>0</v>
+      </c>
+      <c r="S22" s="5">
+        <f>SUM(M22:Q22)</f>
+        <v>-1.1206008493900299E-3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A23" s="3">
         <v>1</v>
       </c>
@@ -1367,16 +1866,38 @@
       <c r="J23">
         <v>3.0150599479675289</v>
       </c>
-      <c r="K23">
+      <c r="K23" s="7">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="L23">
+      <c r="L23" s="5">
         <f t="shared" si="1"/>
         <v>4.627517516259104</v>
       </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M23">
+        <v>1.0012276172637939</v>
+      </c>
+      <c r="N23">
+        <v>0.96762323379516602</v>
+      </c>
+      <c r="O23">
+        <v>-0.14275716245174411</v>
+      </c>
+      <c r="P23">
+        <v>4.5905429869890213E-3</v>
+      </c>
+      <c r="Q23">
+        <v>3.0067446231842041</v>
+      </c>
+      <c r="R23" s="7">
+        <v>5</v>
+      </c>
+      <c r="S23" s="5">
+        <f>SUM(M23:Q23)</f>
+        <v>4.837428854778409</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A24" s="3">
         <v>0</v>
       </c>
@@ -1407,16 +1928,38 @@
       <c r="J24">
         <v>-3.1102448701858521E-4</v>
       </c>
-      <c r="K24">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L24">
+      <c r="K24" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L24" s="5">
         <f t="shared" si="1"/>
         <v>-1.3401531614363194E-3</v>
       </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M24">
+        <v>-2.1444261074066159E-4</v>
+      </c>
+      <c r="N24">
+        <v>3.5960599780082703E-4</v>
+      </c>
+      <c r="O24">
+        <v>-6.5407902002334595E-4</v>
+      </c>
+      <c r="P24">
+        <v>-5.6827440857887268E-4</v>
+      </c>
+      <c r="Q24">
+        <v>-4.3410807847976678E-5</v>
+      </c>
+      <c r="R24" s="7">
+        <v>0</v>
+      </c>
+      <c r="S24" s="5">
+        <f>SUM(M24:Q24)</f>
+        <v>-1.1206008493900299E-3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A25" s="3">
         <v>0</v>
       </c>
@@ -1447,16 +1990,38 @@
       <c r="J25">
         <v>-3.1102448701858521E-4</v>
       </c>
-      <c r="K25">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L25">
+      <c r="K25" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L25" s="5">
         <f t="shared" si="1"/>
         <v>-1.3401531614363194E-3</v>
       </c>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M25">
+        <v>-2.1444261074066159E-4</v>
+      </c>
+      <c r="N25">
+        <v>3.5960599780082703E-4</v>
+      </c>
+      <c r="O25">
+        <v>-6.5407902002334595E-4</v>
+      </c>
+      <c r="P25">
+        <v>-5.6827440857887268E-4</v>
+      </c>
+      <c r="Q25">
+        <v>-4.3410807847976678E-5</v>
+      </c>
+      <c r="R25" s="7">
+        <v>0</v>
+      </c>
+      <c r="S25" s="5">
+        <f>SUM(M25:Q25)</f>
+        <v>-1.1206008493900299E-3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A26" s="3">
         <v>0</v>
       </c>
@@ -1487,16 +2052,38 @@
       <c r="J26">
         <v>3.0586740970611568</v>
       </c>
-      <c r="K26">
+      <c r="K26" s="7">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="L26">
+      <c r="L26" s="5">
         <f t="shared" si="1"/>
         <v>3.0442765098996456</v>
       </c>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M26">
+        <v>-0.150385856628418</v>
+      </c>
+      <c r="N26">
+        <v>-9.1411173343658447E-4</v>
+      </c>
+      <c r="O26">
+        <v>1.7222277820110321E-3</v>
+      </c>
+      <c r="P26">
+        <v>6.2532108277082443E-3</v>
+      </c>
+      <c r="Q26">
+        <v>3.002282857894897</v>
+      </c>
+      <c r="R26" s="7">
+        <v>3</v>
+      </c>
+      <c r="S26" s="5">
+        <f>SUM(M26:Q26)</f>
+        <v>2.8589583281427617</v>
+      </c>
+    </row>
+    <row r="27" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A27" s="3">
         <v>0</v>
       </c>
@@ -1527,16 +2114,38 @@
       <c r="J27">
         <v>1.002684950828552</v>
       </c>
-      <c r="K27">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="L27">
+      <c r="K27" s="7">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="L27" s="5">
         <f t="shared" si="1"/>
         <v>1.0011492562480269</v>
       </c>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M27">
+        <v>-1.059796661138535E-3</v>
+      </c>
+      <c r="N27">
+        <v>0.1013689041137695</v>
+      </c>
+      <c r="O27">
+        <v>2.7433527633547779E-2</v>
+      </c>
+      <c r="P27">
+        <v>-1.6158055514097209E-3</v>
+      </c>
+      <c r="Q27">
+        <v>1.0038455724716191</v>
+      </c>
+      <c r="R27" s="7">
+        <v>1</v>
+      </c>
+      <c r="S27" s="5">
+        <f>SUM(M27:Q27)</f>
+        <v>1.1299724020063882</v>
+      </c>
+    </row>
+    <row r="28" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A28" s="3">
         <v>0</v>
       </c>
@@ -1567,16 +2176,38 @@
       <c r="J28">
         <v>-3.1102448701858521E-4</v>
       </c>
-      <c r="K28">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L28">
+      <c r="K28" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L28" s="5">
         <f t="shared" si="1"/>
         <v>-1.3401531614363194E-3</v>
       </c>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M28">
+        <v>-2.1444261074066159E-4</v>
+      </c>
+      <c r="N28">
+        <v>3.5960599780082703E-4</v>
+      </c>
+      <c r="O28">
+        <v>-6.5407902002334595E-4</v>
+      </c>
+      <c r="P28">
+        <v>-5.6827440857887268E-4</v>
+      </c>
+      <c r="Q28">
+        <v>-4.3410807847976678E-5</v>
+      </c>
+      <c r="R28" s="7">
+        <v>0</v>
+      </c>
+      <c r="S28" s="5">
+        <f>SUM(M28:Q28)</f>
+        <v>-1.1206008493900299E-3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A29" s="3">
         <v>0</v>
       </c>
@@ -1607,16 +2238,38 @@
       <c r="J29">
         <v>-3.1102448701858521E-4</v>
       </c>
-      <c r="K29">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L29">
+      <c r="K29" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L29" s="5">
         <f t="shared" si="1"/>
         <v>-1.3401531614363194E-3</v>
       </c>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M29">
+        <v>-2.1444261074066159E-4</v>
+      </c>
+      <c r="N29">
+        <v>3.5960599780082703E-4</v>
+      </c>
+      <c r="O29">
+        <v>-6.5407902002334595E-4</v>
+      </c>
+      <c r="P29">
+        <v>-5.6827440857887268E-4</v>
+      </c>
+      <c r="Q29">
+        <v>-4.3410807847976678E-5</v>
+      </c>
+      <c r="R29" s="7">
+        <v>0</v>
+      </c>
+      <c r="S29" s="5">
+        <f>SUM(M29:Q29)</f>
+        <v>-1.1206008493900299E-3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A30" s="3">
         <v>0</v>
       </c>
@@ -1647,16 +2300,38 @@
       <c r="J30">
         <v>-3.1102448701858521E-4</v>
       </c>
-      <c r="K30">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L30">
+      <c r="K30" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L30" s="5">
         <f t="shared" si="1"/>
         <v>-1.3401531614363194E-3</v>
       </c>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M30">
+        <v>-2.1444261074066159E-4</v>
+      </c>
+      <c r="N30">
+        <v>3.5960599780082703E-4</v>
+      </c>
+      <c r="O30">
+        <v>-6.5407902002334595E-4</v>
+      </c>
+      <c r="P30">
+        <v>-5.6827440857887268E-4</v>
+      </c>
+      <c r="Q30">
+        <v>-4.3410807847976678E-5</v>
+      </c>
+      <c r="R30" s="7">
+        <v>0</v>
+      </c>
+      <c r="S30" s="5">
+        <f>SUM(M30:Q30)</f>
+        <v>-1.1206008493900299E-3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A31" s="3">
         <v>0</v>
       </c>
@@ -1687,16 +2362,38 @@
       <c r="J31">
         <v>-3.1102448701858521E-4</v>
       </c>
-      <c r="K31">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L31">
+      <c r="K31" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L31" s="5">
         <f t="shared" si="1"/>
         <v>-1.3401531614363194E-3</v>
       </c>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M31">
+        <v>-2.1444261074066159E-4</v>
+      </c>
+      <c r="N31">
+        <v>3.5960599780082703E-4</v>
+      </c>
+      <c r="O31">
+        <v>-6.5407902002334595E-4</v>
+      </c>
+      <c r="P31">
+        <v>-5.6827440857887268E-4</v>
+      </c>
+      <c r="Q31">
+        <v>-4.3410807847976678E-5</v>
+      </c>
+      <c r="R31" s="7">
+        <v>0</v>
+      </c>
+      <c r="S31" s="5">
+        <f>SUM(M31:Q31)</f>
+        <v>-1.1206008493900299E-3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A32" s="3">
         <v>0</v>
       </c>
@@ -1727,16 +2424,38 @@
       <c r="J32">
         <v>2.001774787902832</v>
       </c>
-      <c r="K32">
+      <c r="K32" s="7">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="L32">
+      <c r="L32" s="5">
         <f t="shared" si="1"/>
         <v>3.9941629953682423</v>
       </c>
-    </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M32">
+        <v>1.4557316899299619E-4</v>
+      </c>
+      <c r="N32">
+        <v>-3.0522421002388E-4</v>
+      </c>
+      <c r="O32">
+        <v>0.99814391136169434</v>
+      </c>
+      <c r="P32">
+        <v>0.9978255033493042</v>
+      </c>
+      <c r="Q32">
+        <v>1.9939630031585689</v>
+      </c>
+      <c r="R32" s="7">
+        <v>4</v>
+      </c>
+      <c r="S32" s="5">
+        <f>SUM(M32:Q32)</f>
+        <v>3.9897727668285365</v>
+      </c>
+    </row>
+    <row r="33" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A33" s="3">
         <v>1</v>
       </c>
@@ -1767,16 +2486,38 @@
       <c r="J33">
         <v>4.000739574432373</v>
       </c>
-      <c r="K33">
+      <c r="K33" s="7">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="L33">
+      <c r="L33" s="5">
         <f t="shared" si="1"/>
         <v>4.9941277434118092</v>
       </c>
-    </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M33">
+        <v>1.0029997825622561</v>
+      </c>
+      <c r="N33">
+        <v>-1.777380704879761E-3</v>
+      </c>
+      <c r="O33">
+        <v>1.625530421733856E-3</v>
+      </c>
+      <c r="P33">
+        <v>-4.5507866889238358E-3</v>
+      </c>
+      <c r="Q33">
+        <v>4.0107922554016113</v>
+      </c>
+      <c r="R33" s="7">
+        <v>5</v>
+      </c>
+      <c r="S33" s="5">
+        <f>SUM(M33:Q33)</f>
+        <v>5.0090894009917974</v>
+      </c>
+    </row>
+    <row r="34" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A34" s="3">
         <v>0</v>
       </c>
@@ -1807,16 +2548,38 @@
       <c r="J34">
         <v>1.06049656867981</v>
       </c>
-      <c r="K34">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="L34">
+      <c r="K34" s="7">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="L34" s="5">
         <f t="shared" si="1"/>
         <v>1.1367533183656637</v>
       </c>
-    </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M34">
+        <v>-4.1789665818214423E-2</v>
+      </c>
+      <c r="N34">
+        <v>2.7816250920295719E-2</v>
+      </c>
+      <c r="O34">
+        <v>3.010405600070953E-2</v>
+      </c>
+      <c r="P34">
+        <v>-1.420196145772934E-3</v>
+      </c>
+      <c r="Q34">
+        <v>0.9968993067741394</v>
+      </c>
+      <c r="R34" s="7">
+        <v>1</v>
+      </c>
+      <c r="S34" s="5">
+        <f>SUM(M34:Q34)</f>
+        <v>1.0116097517311573</v>
+      </c>
+    </row>
+    <row r="35" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A35" s="3">
         <v>0</v>
       </c>
@@ -1847,16 +2610,38 @@
       <c r="J35">
         <v>2.001774787902832</v>
       </c>
-      <c r="K35">
+      <c r="K35" s="7">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="L35">
+      <c r="L35" s="5">
         <f t="shared" si="1"/>
         <v>3.9941629953682423</v>
       </c>
-    </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M35">
+        <v>1.4557316899299619E-4</v>
+      </c>
+      <c r="N35">
+        <v>-3.0522421002388E-4</v>
+      </c>
+      <c r="O35">
+        <v>0.99814391136169434</v>
+      </c>
+      <c r="P35">
+        <v>0.9978255033493042</v>
+      </c>
+      <c r="Q35">
+        <v>1.9939630031585689</v>
+      </c>
+      <c r="R35" s="7">
+        <v>4</v>
+      </c>
+      <c r="S35" s="5">
+        <f>SUM(M35:Q35)</f>
+        <v>3.9897727668285365</v>
+      </c>
+    </row>
+    <row r="36" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A36" s="3">
         <v>0</v>
       </c>
@@ -1887,16 +2672,38 @@
       <c r="J36">
         <v>-3.1102448701858521E-4</v>
       </c>
-      <c r="K36">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L36">
+      <c r="K36" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L36" s="5">
         <f t="shared" si="1"/>
         <v>-1.3401531614363194E-3</v>
       </c>
-    </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M36">
+        <v>-2.1444261074066159E-4</v>
+      </c>
+      <c r="N36">
+        <v>3.5960599780082703E-4</v>
+      </c>
+      <c r="O36">
+        <v>-6.5407902002334595E-4</v>
+      </c>
+      <c r="P36">
+        <v>-5.6827440857887268E-4</v>
+      </c>
+      <c r="Q36">
+        <v>-4.3410807847976678E-5</v>
+      </c>
+      <c r="R36" s="7">
+        <v>0</v>
+      </c>
+      <c r="S36" s="5">
+        <f>SUM(M36:Q36)</f>
+        <v>-1.1206008493900299E-3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A37" s="3">
         <v>0</v>
       </c>
@@ -1927,16 +2734,38 @@
       <c r="J37">
         <v>2.001774787902832</v>
       </c>
-      <c r="K37">
+      <c r="K37" s="7">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="L37">
+      <c r="L37" s="5">
         <f t="shared" si="1"/>
         <v>3.9941629953682423</v>
       </c>
-    </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M37">
+        <v>1.4557316899299619E-4</v>
+      </c>
+      <c r="N37">
+        <v>-3.0522421002388E-4</v>
+      </c>
+      <c r="O37">
+        <v>0.99814391136169434</v>
+      </c>
+      <c r="P37">
+        <v>0.9978255033493042</v>
+      </c>
+      <c r="Q37">
+        <v>1.9939630031585689</v>
+      </c>
+      <c r="R37" s="7">
+        <v>4</v>
+      </c>
+      <c r="S37" s="5">
+        <f>SUM(M37:Q37)</f>
+        <v>3.9897727668285365</v>
+      </c>
+    </row>
+    <row r="38" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A38" s="3">
         <v>1</v>
       </c>
@@ -1967,16 +2796,38 @@
       <c r="J38">
         <v>-9.1344118118286133E-4</v>
       </c>
-      <c r="K38">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="L38">
+      <c r="K38" s="7">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="L38" s="5">
         <f t="shared" si="1"/>
         <v>1.9963688333518803</v>
       </c>
-    </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M38">
+        <v>0.99895238876342773</v>
+      </c>
+      <c r="N38">
+        <v>1.0014051198959351</v>
+      </c>
+      <c r="O38">
+        <v>-8.7726488709449768E-4</v>
+      </c>
+      <c r="P38">
+        <v>-1.1921394616365431E-3</v>
+      </c>
+      <c r="Q38">
+        <v>-2.1578595042228699E-3</v>
+      </c>
+      <c r="R38" s="7">
+        <v>2</v>
+      </c>
+      <c r="S38" s="5">
+        <f>SUM(M38:Q38)</f>
+        <v>1.9961302448064089</v>
+      </c>
+    </row>
+    <row r="39" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A39" s="3">
         <v>0</v>
       </c>
@@ -2007,16 +2858,38 @@
       <c r="J39">
         <v>-3.1102448701858521E-4</v>
       </c>
-      <c r="K39">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L39">
+      <c r="K39" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L39" s="5">
         <f t="shared" si="1"/>
         <v>-1.3401531614363194E-3</v>
       </c>
-    </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M39">
+        <v>-2.1444261074066159E-4</v>
+      </c>
+      <c r="N39">
+        <v>3.5960599780082703E-4</v>
+      </c>
+      <c r="O39">
+        <v>-6.5407902002334595E-4</v>
+      </c>
+      <c r="P39">
+        <v>-5.6827440857887268E-4</v>
+      </c>
+      <c r="Q39">
+        <v>-4.3410807847976678E-5</v>
+      </c>
+      <c r="R39" s="7">
+        <v>0</v>
+      </c>
+      <c r="S39" s="5">
+        <f>SUM(M39:Q39)</f>
+        <v>-1.1206008493900299E-3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A40" s="3">
         <v>0</v>
       </c>
@@ -2047,16 +2920,38 @@
       <c r="J40">
         <v>-3.1102448701858521E-4</v>
       </c>
-      <c r="K40">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L40">
+      <c r="K40" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L40" s="5">
         <f t="shared" si="1"/>
         <v>-1.3401531614363194E-3</v>
       </c>
-    </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M40">
+        <v>-2.1444261074066159E-4</v>
+      </c>
+      <c r="N40">
+        <v>3.5960599780082703E-4</v>
+      </c>
+      <c r="O40">
+        <v>-6.5407902002334595E-4</v>
+      </c>
+      <c r="P40">
+        <v>-5.6827440857887268E-4</v>
+      </c>
+      <c r="Q40">
+        <v>-4.3410807847976678E-5</v>
+      </c>
+      <c r="R40" s="7">
+        <v>0</v>
+      </c>
+      <c r="S40" s="5">
+        <f>SUM(M40:Q40)</f>
+        <v>-1.1206008493900299E-3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A41" s="3">
         <v>0</v>
       </c>
@@ -2087,16 +2982,38 @@
       <c r="J41">
         <v>-3.1102448701858521E-4</v>
       </c>
-      <c r="K41">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L41">
+      <c r="K41" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L41" s="5">
         <f t="shared" si="1"/>
         <v>-1.3401531614363194E-3</v>
       </c>
-    </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M41">
+        <v>-2.1444261074066159E-4</v>
+      </c>
+      <c r="N41">
+        <v>3.5960599780082703E-4</v>
+      </c>
+      <c r="O41">
+        <v>-6.5407902002334595E-4</v>
+      </c>
+      <c r="P41">
+        <v>-5.6827440857887268E-4</v>
+      </c>
+      <c r="Q41">
+        <v>-4.3410807847976678E-5</v>
+      </c>
+      <c r="R41" s="7">
+        <v>0</v>
+      </c>
+      <c r="S41" s="5">
+        <f>SUM(M41:Q41)</f>
+        <v>-1.1206008493900299E-3</v>
+      </c>
+    </row>
+    <row r="42" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A42" s="3">
         <v>1</v>
       </c>
@@ -2127,16 +3044,38 @@
       <c r="J42">
         <v>1.9988304376602171</v>
       </c>
-      <c r="K42">
+      <c r="K42" s="7">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="L42">
+      <c r="L42" s="5">
         <f t="shared" si="1"/>
         <v>3.0977801163680851</v>
       </c>
-    </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M42">
+        <v>0.84369289875030518</v>
+      </c>
+      <c r="N42">
+        <v>1.508936285972595E-3</v>
+      </c>
+      <c r="O42">
+        <v>3.5831164568662643E-2</v>
+      </c>
+      <c r="P42">
+        <v>-2.3572081699967381E-2</v>
+      </c>
+      <c r="Q42">
+        <v>1.9034814834594731</v>
+      </c>
+      <c r="R42" s="7">
+        <v>3</v>
+      </c>
+      <c r="S42" s="5">
+        <f>SUM(M42:Q42)</f>
+        <v>2.7609424013644461</v>
+      </c>
+    </row>
+    <row r="43" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A43" s="3">
         <v>1</v>
       </c>
@@ -2167,16 +3106,38 @@
       <c r="J43">
         <v>-1.457624137401581E-3</v>
       </c>
-      <c r="K43">
+      <c r="K43" s="7">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="L43">
+      <c r="L43" s="5">
         <f t="shared" si="1"/>
         <v>9.9195236638188362</v>
       </c>
-    </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M43">
+        <v>0.95598173141479492</v>
+      </c>
+      <c r="N43">
+        <v>2.0005407333374019</v>
+      </c>
+      <c r="O43">
+        <v>2.9933333396911621</v>
+      </c>
+      <c r="P43">
+        <v>4.1405987739562988</v>
+      </c>
+      <c r="Q43">
+        <v>-1.382862776517868E-2</v>
+      </c>
+      <c r="R43" s="7">
+        <v>10</v>
+      </c>
+      <c r="S43" s="5">
+        <f>SUM(M43:Q43)</f>
+        <v>10.07662595063448</v>
+      </c>
+    </row>
+    <row r="44" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A44" s="3">
         <v>0</v>
       </c>
@@ -2207,16 +3168,38 @@
       <c r="J44">
         <v>1.998090386390686</v>
       </c>
-      <c r="K44">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="L44">
+      <c r="K44" s="7">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="L44" s="5">
         <f t="shared" si="1"/>
         <v>2.0917236898094416</v>
       </c>
-    </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M44">
+        <v>-3.0298363417387009E-2</v>
+      </c>
+      <c r="N44">
+        <v>3.9291888475418091E-2</v>
+      </c>
+      <c r="O44">
+        <v>-1.984532922506332E-3</v>
+      </c>
+      <c r="P44">
+        <v>-3.4461710602045059E-3</v>
+      </c>
+      <c r="Q44">
+        <v>1.855035543441772</v>
+      </c>
+      <c r="R44" s="7">
+        <v>2</v>
+      </c>
+      <c r="S44" s="5">
+        <f>SUM(M44:Q44)</f>
+        <v>1.8585983645170923</v>
+      </c>
+    </row>
+    <row r="45" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A45" s="3">
         <v>0</v>
       </c>
@@ -2247,16 +3230,38 @@
       <c r="J45">
         <v>-3.1102448701858521E-4</v>
       </c>
-      <c r="K45">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L45">
+      <c r="K45" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L45" s="5">
         <f t="shared" si="1"/>
         <v>-1.3401531614363194E-3</v>
       </c>
-    </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M45">
+        <v>-2.1444261074066159E-4</v>
+      </c>
+      <c r="N45">
+        <v>3.5960599780082703E-4</v>
+      </c>
+      <c r="O45">
+        <v>-6.5407902002334595E-4</v>
+      </c>
+      <c r="P45">
+        <v>-5.6827440857887268E-4</v>
+      </c>
+      <c r="Q45">
+        <v>-4.3410807847976678E-5</v>
+      </c>
+      <c r="R45" s="7">
+        <v>0</v>
+      </c>
+      <c r="S45" s="5">
+        <f>SUM(M45:Q45)</f>
+        <v>-1.1206008493900299E-3</v>
+      </c>
+    </row>
+    <row r="46" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A46" s="3">
         <v>0</v>
       </c>
@@ -2287,16 +3292,38 @@
       <c r="J46">
         <v>1.183493375778198</v>
       </c>
-      <c r="K46">
+      <c r="K46" s="7">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="L46">
+      <c r="L46" s="5">
         <f t="shared" si="1"/>
         <v>3.3618648834526539</v>
       </c>
-    </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M46">
+        <v>0.25176912546157842</v>
+      </c>
+      <c r="N46">
+        <v>-4.8930943012237549E-4</v>
+      </c>
+      <c r="O46">
+        <v>1.000618696212769</v>
+      </c>
+      <c r="P46">
+        <v>0.99808621406555176</v>
+      </c>
+      <c r="Q46">
+        <v>0.8446965217590332</v>
+      </c>
+      <c r="R46" s="7">
+        <v>3</v>
+      </c>
+      <c r="S46" s="5">
+        <f>SUM(M46:Q46)</f>
+        <v>3.09468124806881</v>
+      </c>
+    </row>
+    <row r="47" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A47" s="3">
         <v>0</v>
       </c>
@@ -2327,16 +3354,38 @@
       <c r="J47">
         <v>-3.1102448701858521E-4</v>
       </c>
-      <c r="K47">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L47">
+      <c r="K47" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L47" s="5">
         <f t="shared" si="1"/>
         <v>-1.3401531614363194E-3</v>
       </c>
-    </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M47">
+        <v>-2.1444261074066159E-4</v>
+      </c>
+      <c r="N47">
+        <v>3.5960599780082703E-4</v>
+      </c>
+      <c r="O47">
+        <v>-6.5407902002334595E-4</v>
+      </c>
+      <c r="P47">
+        <v>-5.6827440857887268E-4</v>
+      </c>
+      <c r="Q47">
+        <v>-4.3410807847976678E-5</v>
+      </c>
+      <c r="R47" s="7">
+        <v>0</v>
+      </c>
+      <c r="S47" s="5">
+        <f>SUM(M47:Q47)</f>
+        <v>-1.1206008493900299E-3</v>
+      </c>
+    </row>
+    <row r="48" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A48" s="3">
         <v>0</v>
       </c>
@@ -2367,16 +3416,38 @@
       <c r="J48">
         <v>-3.1102448701858521E-4</v>
       </c>
-      <c r="K48">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L48">
+      <c r="K48" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L48" s="5">
         <f t="shared" si="1"/>
         <v>-1.3401531614363194E-3</v>
       </c>
-    </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M48">
+        <v>-2.1444261074066159E-4</v>
+      </c>
+      <c r="N48">
+        <v>3.5960599780082703E-4</v>
+      </c>
+      <c r="O48">
+        <v>-6.5407902002334595E-4</v>
+      </c>
+      <c r="P48">
+        <v>-5.6827440857887268E-4</v>
+      </c>
+      <c r="Q48">
+        <v>-4.3410807847976678E-5</v>
+      </c>
+      <c r="R48" s="7">
+        <v>0</v>
+      </c>
+      <c r="S48" s="5">
+        <f>SUM(M48:Q48)</f>
+        <v>-1.1206008493900299E-3</v>
+      </c>
+    </row>
+    <row r="49" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A49" s="3">
         <v>0</v>
       </c>
@@ -2407,16 +3478,38 @@
       <c r="J49">
         <v>-3.1102448701858521E-4</v>
       </c>
-      <c r="K49">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L49">
+      <c r="K49" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L49" s="5">
         <f t="shared" si="1"/>
         <v>-1.3401531614363194E-3</v>
       </c>
-    </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M49">
+        <v>-2.1444261074066159E-4</v>
+      </c>
+      <c r="N49">
+        <v>3.5960599780082703E-4</v>
+      </c>
+      <c r="O49">
+        <v>-6.5407902002334595E-4</v>
+      </c>
+      <c r="P49">
+        <v>-5.6827440857887268E-4</v>
+      </c>
+      <c r="Q49">
+        <v>-4.3410807847976678E-5</v>
+      </c>
+      <c r="R49" s="7">
+        <v>0</v>
+      </c>
+      <c r="S49" s="5">
+        <f>SUM(M49:Q49)</f>
+        <v>-1.1206008493900299E-3</v>
+      </c>
+    </row>
+    <row r="50" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A50" s="3">
         <v>0</v>
       </c>
@@ -2447,16 +3540,38 @@
       <c r="J50">
         <v>1.0999273061752319</v>
       </c>
-      <c r="K50">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="L50">
+      <c r="K50" s="7">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="L50" s="5">
         <f t="shared" si="1"/>
         <v>0.9340275414288044</v>
       </c>
-    </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M50">
+        <v>3.4135952591896063E-4</v>
+      </c>
+      <c r="N50">
+        <v>-1.65699627250433E-2</v>
+      </c>
+      <c r="O50">
+        <v>9.6556171774864197E-4</v>
+      </c>
+      <c r="P50">
+        <v>6.0684360563755042E-2</v>
+      </c>
+      <c r="Q50">
+        <v>1.0065227746963501</v>
+      </c>
+      <c r="R50" s="7">
+        <v>1</v>
+      </c>
+      <c r="S50" s="5">
+        <f>SUM(M50:Q50)</f>
+        <v>1.0519440937787294</v>
+      </c>
+    </row>
+    <row r="51" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A51" s="3">
         <v>0</v>
       </c>
@@ -2487,16 +3602,38 @@
       <c r="J51">
         <v>-3.1102448701858521E-4</v>
       </c>
-      <c r="K51">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L51">
+      <c r="K51" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L51" s="5">
         <f t="shared" si="1"/>
         <v>-1.3401531614363194E-3</v>
       </c>
-    </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M51">
+        <v>-2.1444261074066159E-4</v>
+      </c>
+      <c r="N51">
+        <v>3.5960599780082703E-4</v>
+      </c>
+      <c r="O51">
+        <v>-6.5407902002334595E-4</v>
+      </c>
+      <c r="P51">
+        <v>-5.6827440857887268E-4</v>
+      </c>
+      <c r="Q51">
+        <v>-4.3410807847976678E-5</v>
+      </c>
+      <c r="R51" s="7">
+        <v>0</v>
+      </c>
+      <c r="S51" s="5">
+        <f>SUM(M51:Q51)</f>
+        <v>-1.1206008493900299E-3</v>
+      </c>
+    </row>
+    <row r="52" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A52" s="3">
         <v>0</v>
       </c>
@@ -2527,16 +3664,38 @@
       <c r="J52">
         <v>4.0012240409851074</v>
       </c>
-      <c r="K52">
+      <c r="K52" s="7">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="L52">
+      <c r="L52" s="5">
         <f t="shared" si="1"/>
         <v>7.9852590896189213</v>
       </c>
-    </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M52">
+        <v>1.5804804861545561E-3</v>
+      </c>
+      <c r="N52">
+        <v>1.123688817024231</v>
+      </c>
+      <c r="O52">
+        <v>1.0086656808853149</v>
+      </c>
+      <c r="P52">
+        <v>2.0116887092590332</v>
+      </c>
+      <c r="Q52">
+        <v>4.0079360008239746</v>
+      </c>
+      <c r="R52" s="7">
+        <v>8</v>
+      </c>
+      <c r="S52" s="5">
+        <f>SUM(M52:Q52)</f>
+        <v>8.1535596884787083</v>
+      </c>
+    </row>
+    <row r="53" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A53" s="3">
         <v>0</v>
       </c>
@@ -2567,16 +3726,38 @@
       <c r="J53">
         <v>-4.1844360530376427E-2</v>
       </c>
-      <c r="K53">
+      <c r="K53" s="7">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="L53">
+      <c r="L53" s="5">
         <f t="shared" si="1"/>
         <v>3.8779396191239361</v>
       </c>
-    </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M53">
+        <v>-1.7346926033496861E-3</v>
+      </c>
+      <c r="N53">
+        <v>4.9985945224761963E-4</v>
+      </c>
+      <c r="O53">
+        <v>1.768456339836121</v>
+      </c>
+      <c r="P53">
+        <v>2.024208784103394</v>
+      </c>
+      <c r="Q53">
+        <v>0.20404860377311709</v>
+      </c>
+      <c r="R53" s="7">
+        <v>4</v>
+      </c>
+      <c r="S53" s="5">
+        <f>SUM(M53:Q53)</f>
+        <v>3.99547889456153</v>
+      </c>
+    </row>
+    <row r="54" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A54" s="3">
         <v>0</v>
       </c>
@@ -2607,16 +3788,38 @@
       <c r="J54">
         <v>2.001774787902832</v>
       </c>
-      <c r="K54">
+      <c r="K54" s="7">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="L54">
+      <c r="L54" s="5">
         <f t="shared" si="1"/>
         <v>3.9941629953682423</v>
       </c>
-    </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M54">
+        <v>1.4557316899299619E-4</v>
+      </c>
+      <c r="N54">
+        <v>-3.0522421002388E-4</v>
+      </c>
+      <c r="O54">
+        <v>0.99814391136169434</v>
+      </c>
+      <c r="P54">
+        <v>0.9978255033493042</v>
+      </c>
+      <c r="Q54">
+        <v>1.9939630031585689</v>
+      </c>
+      <c r="R54" s="7">
+        <v>4</v>
+      </c>
+      <c r="S54" s="5">
+        <f>SUM(M54:Q54)</f>
+        <v>3.9897727668285365</v>
+      </c>
+    </row>
+    <row r="55" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A55" s="3">
         <v>0</v>
       </c>
@@ -2647,16 +3850,38 @@
       <c r="J55">
         <v>2.1966025233268742E-3</v>
       </c>
-      <c r="K55">
+      <c r="K55" s="7">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="L55">
+      <c r="L55" s="5">
         <f t="shared" si="1"/>
         <v>5.9646138660609722</v>
       </c>
-    </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M55">
+        <v>0.12092623114585881</v>
+      </c>
+      <c r="N55">
+        <v>0.96898782253265381</v>
+      </c>
+      <c r="O55">
+        <v>2.0351705551147461</v>
+      </c>
+      <c r="P55">
+        <v>2.941109418869019</v>
+      </c>
+      <c r="Q55">
+        <v>-1.3499133288860319E-2</v>
+      </c>
+      <c r="R55" s="7">
+        <v>6</v>
+      </c>
+      <c r="S55" s="5">
+        <f>SUM(M55:Q55)</f>
+        <v>6.0526948943734169</v>
+      </c>
+    </row>
+    <row r="56" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A56" s="3">
         <v>2</v>
       </c>
@@ -2687,16 +3912,38 @@
       <c r="J56">
         <v>-1.9090995192527771E-3</v>
       </c>
-      <c r="K56">
+      <c r="K56" s="7">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="L56">
+      <c r="L56" s="5">
         <f t="shared" si="1"/>
         <v>9.0125046148896217</v>
       </c>
-    </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M56">
+        <v>1.9951484203338621</v>
+      </c>
+      <c r="N56">
+        <v>2.0013141632080078</v>
+      </c>
+      <c r="O56">
+        <v>1.993280410766602</v>
+      </c>
+      <c r="P56">
+        <v>2.9964454174041748</v>
+      </c>
+      <c r="Q56">
+        <v>8.0272331833839417E-3</v>
+      </c>
+      <c r="R56" s="7">
+        <v>9</v>
+      </c>
+      <c r="S56" s="5">
+        <f>SUM(M56:Q56)</f>
+        <v>8.9942156448960304</v>
+      </c>
+    </row>
+    <row r="57" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A57" s="3">
         <v>0</v>
       </c>
@@ -2727,16 +3974,38 @@
       <c r="J57">
         <v>-3.1102448701858521E-4</v>
       </c>
-      <c r="K57">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L57">
+      <c r="K57" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L57" s="5">
         <f t="shared" si="1"/>
         <v>-1.3401531614363194E-3</v>
       </c>
-    </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M57">
+        <v>-2.1444261074066159E-4</v>
+      </c>
+      <c r="N57">
+        <v>3.5960599780082703E-4</v>
+      </c>
+      <c r="O57">
+        <v>-6.5407902002334595E-4</v>
+      </c>
+      <c r="P57">
+        <v>-5.6827440857887268E-4</v>
+      </c>
+      <c r="Q57">
+        <v>-4.3410807847976678E-5</v>
+      </c>
+      <c r="R57" s="7">
+        <v>0</v>
+      </c>
+      <c r="S57" s="5">
+        <f>SUM(M57:Q57)</f>
+        <v>-1.1206008493900299E-3</v>
+      </c>
+    </row>
+    <row r="58" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A58" s="3">
         <v>0</v>
       </c>
@@ -2767,16 +4036,38 @@
       <c r="J58">
         <v>1.002684950828552</v>
       </c>
-      <c r="K58">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="L58">
+      <c r="K58" s="7">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="L58" s="5">
         <f t="shared" si="1"/>
         <v>1.0011492562480269</v>
       </c>
-    </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M58">
+        <v>-1.059796661138535E-3</v>
+      </c>
+      <c r="N58">
+        <v>0.1013689041137695</v>
+      </c>
+      <c r="O58">
+        <v>2.7433527633547779E-2</v>
+      </c>
+      <c r="P58">
+        <v>-1.6158055514097209E-3</v>
+      </c>
+      <c r="Q58">
+        <v>1.0038455724716191</v>
+      </c>
+      <c r="R58" s="7">
+        <v>1</v>
+      </c>
+      <c r="S58" s="5">
+        <f>SUM(M58:Q58)</f>
+        <v>1.1299724020063882</v>
+      </c>
+    </row>
+    <row r="59" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A59" s="3">
         <v>1</v>
       </c>
@@ -2807,16 +4098,38 @@
       <c r="J59">
         <v>-9.1344118118286133E-4</v>
       </c>
-      <c r="K59">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="L59">
+      <c r="K59" s="7">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="L59" s="5">
         <f t="shared" si="1"/>
         <v>1.9963688333518803</v>
       </c>
-    </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M59">
+        <v>0.99895238876342773</v>
+      </c>
+      <c r="N59">
+        <v>1.0014051198959351</v>
+      </c>
+      <c r="O59">
+        <v>-8.7726488709449768E-4</v>
+      </c>
+      <c r="P59">
+        <v>-1.1921394616365431E-3</v>
+      </c>
+      <c r="Q59">
+        <v>-2.1578595042228699E-3</v>
+      </c>
+      <c r="R59" s="7">
+        <v>2</v>
+      </c>
+      <c r="S59" s="5">
+        <f>SUM(M59:Q59)</f>
+        <v>1.9961302448064089</v>
+      </c>
+    </row>
+    <row r="60" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A60" s="3">
         <v>0</v>
       </c>
@@ -2847,13 +4160,35 @@
       <c r="J60">
         <v>-1.4762207865715029E-3</v>
       </c>
-      <c r="K60">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="L60">
+      <c r="K60" s="7">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="L60" s="5">
         <f t="shared" si="1"/>
         <v>1.9976366125047205</v>
+      </c>
+      <c r="M60">
+        <v>1.1829324066638951E-3</v>
+      </c>
+      <c r="N60">
+        <v>8.3813071250915527E-4</v>
+      </c>
+      <c r="O60">
+        <v>0.99565494060516357</v>
+      </c>
+      <c r="P60">
+        <v>0.9972691535949707</v>
+      </c>
+      <c r="Q60">
+        <v>5.6086666882038123E-2</v>
+      </c>
+      <c r="R60" s="7">
+        <v>2</v>
+      </c>
+      <c r="S60" s="5">
+        <f>SUM(M60:Q60)</f>
+        <v>2.0510318242013454</v>
       </c>
     </row>
   </sheetData>
@@ -2865,7 +4200,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A394A35-869C-4077-800B-41B98429ED3E}">
   <dimension ref="A1:E60"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:E60"/>
     </sheetView>
   </sheetViews>
